--- a/static/inputData/Template/Air_velocity_template_grade_a.xlsx
+++ b/static/inputData/Template/Air_velocity_template_grade_a.xlsx
@@ -12,14 +12,14 @@
   <definedNames>
     <definedName name="B">#REF!</definedName>
     <definedName name="PCT">#REF!</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'AV-new'!$A$1:$P$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'AV-new'!$A$1:$P$34</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>TEST REPORT</t>
   </si>
@@ -42,9 +42,6 @@
     <t>: Air Velocity</t>
   </si>
   <si>
-    <t>TEST TAKEN</t>
-  </si>
-  <si>
     <t>: At Rest Condition</t>
   </si>
   <si>
@@ -57,15 +54,6 @@
     <t>: XYZ</t>
   </si>
   <si>
-    <t>DONE DATE</t>
-  </si>
-  <si>
-    <t>: DD/MM/YYYY</t>
-  </si>
-  <si>
-    <t>DUE DATE</t>
-  </si>
-  <si>
     <t>REPORT NO.</t>
   </si>
   <si>
@@ -133,6 +121,9 @@
   </si>
   <si>
     <t>EQUIPMENT ID</t>
+  </si>
+  <si>
+    <t>TEST TAKEN ON</t>
   </si>
 </sst>
 </file>
@@ -245,9 +236,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,21 +265,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -580,10 +571,10 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:E7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -608,477 +599,473 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
     </row>
     <row r="2" spans="2:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
     </row>
     <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="18" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
     </row>
     <row r="4" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="18" t="s">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="18" t="s">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="18"/>
-      <c r="O5" s="18"/>
-      <c r="P5" s="18"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
     </row>
     <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+    </row>
+    <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-    </row>
-    <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="18" t="s">
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+    </row>
+    <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="18"/>
-    </row>
-    <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="16" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="18" t="s">
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+    </row>
+    <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="18"/>
-      <c r="O8" s="18"/>
-      <c r="P8" s="18"/>
-    </row>
-    <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="16" t="s">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="18" t="s">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+    </row>
+    <row r="10" spans="2:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="16" t="s">
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="O10" s="18"/>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B11" s="16" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="P11" s="15"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+      <c r="P12" s="15"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="18" t="s">
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="18"/>
-      <c r="P11" s="18"/>
-    </row>
-    <row r="12" spans="2:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="6" t="s">
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="17" t="s">
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B15" s="10" t="s">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10" t="s">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10" t="s">
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="14">
+        <v>44450</v>
+      </c>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+    </row>
+    <row r="18" spans="1:19" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+    </row>
+    <row r="19" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-    </row>
-    <row r="17" spans="1:19" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="15" t="s">
+      <c r="E19" s="13"/>
+      <c r="F19" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15" t="s">
+      <c r="G19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15" t="s">
+      <c r="H19" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="19">
-        <v>44450</v>
-      </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19"/>
-      <c r="P17" s="19"/>
-    </row>
-    <row r="18" spans="1:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-    </row>
-    <row r="19" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-    </row>
-    <row r="20" spans="1:19" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="12"/>
-      <c r="P20" s="12"/>
-    </row>
-    <row r="21" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="10" t="s">
+      <c r="I19" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10" t="s">
+      <c r="J19" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="K19" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="L19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="10" t="s">
+      <c r="M19" s="13"/>
+      <c r="N19" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="L21" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="13"/>
+      <c r="P19" s="13"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="S22" s="7"/>
+    </row>
+    <row r="23" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="S23" s="7"/>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
@@ -1096,7 +1083,7 @@
       <c r="P24" s="4"/>
       <c r="S24" s="7"/>
     </row>
-    <row r="25" spans="1:19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -1113,9 +1100,8 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
@@ -1132,9 +1118,8 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -1152,7 +1137,7 @@
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -1188,7 +1173,7 @@
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
     </row>
-    <row r="30" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -1206,7 +1191,7 @@
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
     </row>
-    <row r="31" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1224,7 +1209,7 @@
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
     </row>
-    <row r="32" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -1242,7 +1227,7 @@
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
     </row>
-    <row r="33" spans="1:16" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -1260,85 +1245,45 @@
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
     </row>
-    <row r="34" spans="1:16" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="8"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-    </row>
-    <row r="35" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="8"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="41">
+  <mergeCells count="37">
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B1:P1"/>
+    <mergeCell ref="B16:P18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="L19:M20"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:P12"/>
+    <mergeCell ref="B13:D14"/>
+    <mergeCell ref="E13:H14"/>
+    <mergeCell ref="I13:L14"/>
+    <mergeCell ref="M13:P14"/>
+    <mergeCell ref="N19:P20"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="F3:P3"/>
     <mergeCell ref="F4:P4"/>
     <mergeCell ref="F5:P5"/>
     <mergeCell ref="F6:P6"/>
     <mergeCell ref="F7:P7"/>
     <mergeCell ref="F9:P9"/>
-    <mergeCell ref="F10:P10"/>
-    <mergeCell ref="F11:P11"/>
-    <mergeCell ref="L21:M22"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="M17:P17"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B13:P14"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="E15:H16"/>
-    <mergeCell ref="I15:L16"/>
-    <mergeCell ref="M15:P16"/>
-    <mergeCell ref="N21:P22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B1:P1"/>
-    <mergeCell ref="B18:P20"/>
-    <mergeCell ref="B21:C22"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.3" top="1.4" bottom="0.2" header="0.5" footer="0.5"/>

--- a/static/inputData/Template/Air_velocity_template_grade_a.xlsx
+++ b/static/inputData/Template/Air_velocity_template_grade_a.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>TEST REPORT</t>
   </si>
@@ -105,25 +105,19 @@
     <t>V5</t>
   </si>
   <si>
-    <t>Avg.  Vel.</t>
-  </si>
-  <si>
-    <t>CFM</t>
-  </si>
-  <si>
-    <t>ACPH</t>
-  </si>
-  <si>
     <t xml:space="preserve">OBSERVATIONS:           </t>
   </si>
   <si>
-    <t>Equipment Name &amp; ID No.</t>
-  </si>
-  <si>
     <t>EQUIPMENT ID</t>
   </si>
   <si>
     <t>TEST TAKEN ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipment Name </t>
+  </si>
+  <si>
+    <t>AVERAGE VELOCITY (FPM)</t>
   </si>
 </sst>
 </file>
@@ -236,6 +230,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -244,9 +241,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -574,7 +568,7 @@
   <dimension ref="A1:S33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="82" zoomScaleNormal="100" zoomScaleSheetLayoutView="82" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:L14"/>
+      <selection activeCell="E19" sqref="E19:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -635,151 +629,151 @@
       <c r="P2" s="16"/>
     </row>
     <row r="3" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="12" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
     </row>
     <row r="5" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="12" t="s">
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
     </row>
     <row r="6" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="12" t="s">
+      <c r="B6" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
     </row>
     <row r="7" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="12" t="s">
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="12" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
     </row>
     <row r="9" spans="2:16" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
     </row>
     <row r="10" spans="2:16" ht="1.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
@@ -837,65 +831,65 @@
       <c r="P12" s="15"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13" t="s">
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13" t="s">
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13" t="s">
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11" t="s">
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="14">
         <v>44450</v>
       </c>
@@ -905,7 +899,7 @@
     </row>
     <row r="16" spans="2:16" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="17" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -958,63 +952,59 @@
     </row>
     <row r="19" spans="1:19" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13"/>
+      <c r="P19" s="19"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1246,33 +1236,19 @@
       <c r="P33" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="D21:E21"/>
+  <mergeCells count="35">
     <mergeCell ref="B2:P2"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B16:P18"/>
     <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="K19:K20"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="L19:M20"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:P8"/>
-    <mergeCell ref="M15:P15"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B11:P12"/>
     <mergeCell ref="B13:D14"/>
     <mergeCell ref="E13:H14"/>
     <mergeCell ref="I13:L14"/>
     <mergeCell ref="M13:P14"/>
-    <mergeCell ref="N19:P20"/>
+    <mergeCell ref="D21:E21"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B5:E5"/>
     <mergeCell ref="B7:E7"/>
@@ -1284,6 +1260,18 @@
     <mergeCell ref="F6:P6"/>
     <mergeCell ref="F7:P7"/>
     <mergeCell ref="F9:P9"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:P8"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:P12"/>
+    <mergeCell ref="O19:P20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:F20"/>
+    <mergeCell ref="G19:H20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="M19:N20"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.1" right="0.3" top="1.4" bottom="0.2" header="0.5" footer="0.5"/>
